--- a/parameters_XLS_3_top_plate_boven.xlsx
+++ b/parameters_XLS_3_top_plate_boven.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PYHTON\xeryon_auto_cam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EBB402-D0F0-4686-9F86-4774A505A7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A076F6A-14DD-4D81-BBFA-C45FB361D97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Param" sheetId="1" r:id="rId1"/>
@@ -567,7 +567,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -690,19 +690,15 @@
         <v>8</v>
       </c>
       <c r="B7" s="11">
-        <f>B4/10</f>
         <v>4</v>
       </c>
       <c r="C7" s="11">
-        <f>C4/10</f>
         <v>6</v>
       </c>
       <c r="D7" s="11">
-        <f>D4/10</f>
         <v>8</v>
       </c>
       <c r="E7" s="11">
-        <f>E4/10</f>
         <v>12</v>
       </c>
       <c r="I7" s="9"/>
